--- a/Python/Data/newTechCE.xlsx
+++ b/Python/Data/newTechCE.xlsx
@@ -1,33 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atpha\Documents\Postdocs\Projects\NETs\Model\Python\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atpha\Documents\Postdocs\Projects\NETs\Model\EI-CE\Python\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682C9A8E-BAE7-4BAF-BF26-455CA4F153DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706495D3-E1F7-4EC7-BDAE-0167E8152A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{DD9D5CFE-688A-4AA0-99D0-0B228406E5D7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DD9D5CFE-688A-4AA0-99D0-0B228406E5D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
   <si>
     <t>PlantType</t>
   </si>
@@ -318,6 +327,24 @@
   </si>
   <si>
     <t>High DAC Cost</t>
+  </si>
+  <si>
+    <t>lb per Mwh</t>
+  </si>
+  <si>
+    <t>ton per Mwh</t>
+  </si>
+  <si>
+    <t>ton per thousand GWh</t>
+  </si>
+  <si>
+    <t>coal</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>co2</t>
   </si>
 </sst>
 </file>
@@ -351,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -436,6 +469,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -751,17 +786,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1084C3C2-DE47-4749-BDB0-11FA404881BD}">
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H10"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -1594,62 +1630,62 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="16">
         <v>-500</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="16">
         <v>3412</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="17">
         <v>-19037733.544999301</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
         <v>-115.33603903062399</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="16">
         <v>322</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="16">
         <v>15</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
+      <c r="P10" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
         <v>500</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
+      <c r="AC10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="16">
         <v>-115.33603903062399</v>
       </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
+      <c r="AE10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="16">
         <v>1</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="16">
         <v>1</v>
       </c>
     </row>
@@ -1659,8 +1695,8 @@
         <v>3.4119999999999999</v>
       </c>
       <c r="N11">
-        <f>N10/2000</f>
-        <v>0.161</v>
+        <f>N10/200</f>
+        <v>1.61</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
@@ -1669,7 +1705,7 @@
       </c>
       <c r="G12">
         <f>G11*N11</f>
-        <v>0.54933200000000004</v>
+        <v>5.4933200000000006</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
@@ -1686,7 +1722,7 @@
       </c>
       <c r="G14" s="1">
         <f>G13/G12</f>
-        <v>182039276.79436114</v>
+        <v>18203927.679436114</v>
       </c>
       <c r="H14">
         <v>22431.006155743598</v>
@@ -1702,25 +1738,25 @@
         <v>3.4999999989690767</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>86</v>
       </c>
       <c r="E19" s="2">
         <f>G14</f>
-        <v>182039276.79436114</v>
+        <v>18203927.679436114</v>
       </c>
       <c r="F19" s="2">
         <f>E19/(1+0.07)</f>
-        <v>170130165.2283749</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+        <v>17013016.52283749</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>87</v>
       </c>
@@ -1729,20 +1765,60 @@
         <v>427035518339.28571</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E21">
         <f>E20/F19</f>
-        <v>2510.0517463558144</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+        <v>25100.517463558146</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E22">
         <f>E21*G12</f>
-        <v>1378.8517459291324</v>
+        <v>137885.17459291324</v>
+      </c>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23">
+        <f>G11*N10</f>
+        <v>1098.664</v>
+      </c>
+      <c r="H23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f>G23/2000</f>
+        <v>0.54933200000000004</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f>G24*1000000</f>
+        <v>549332</v>
+      </c>
+      <c r="H25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <f>G2/1000</f>
+        <v>8.0607351079999994</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1994,7 +2070,7 @@
     <row r="18" spans="7:14" x14ac:dyDescent="0.25">
       <c r="H18" s="1">
         <f>C3*100000000/Sheet1!G14</f>
-        <v>337.28984800000001</v>
+        <v>3372.8984800000003</v>
       </c>
     </row>
     <row r="21" spans="7:14" x14ac:dyDescent="0.25">
@@ -2092,7 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9273D4-DF0E-4763-ADE1-76A033270EC6}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:F18"/>
     </sheetView>
   </sheetViews>
@@ -2437,4 +2513,107 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F17D857-07E0-436A-9C07-13304CCC8F38}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>9467</v>
+      </c>
+      <c r="C2">
+        <v>1.025E-2</v>
+      </c>
+      <c r="D2">
+        <f>B2*C2</f>
+        <v>97.036749999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>6363</v>
+      </c>
+      <c r="C3">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="D3">
+        <f>B3*C3</f>
+        <v>378.5985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>6170</v>
+      </c>
+      <c r="C4">
+        <v>5.9500000000000004E-3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D3:D6" si="0">B4*C4</f>
+        <v>36.711500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>10455</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>3412</v>
+      </c>
+      <c r="C6">
+        <v>0.161</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>549.33199999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>